--- a/Bystander Intervention/MetaData/MetaData.xlsx
+++ b/Bystander Intervention/MetaData/MetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Documents\Games\SeniorDesign480\Bystander Intervention\MetaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F70777E-342B-45DC-8764-2C2B61B75FA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BFCB10-E0AA-4D31-8FD7-DC95377EF444}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27480" windowHeight="12810" xr2:uid="{6CCB2488-0D6D-4EC9-A2A8-43151E4FAC94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6CCB2488-0D6D-4EC9-A2A8-43151E4FAC94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="280">
   <si>
     <t>Title</t>
   </si>
@@ -856,6 +856,15 @@
   </si>
   <si>
     <t>go tell them to stop</t>
+  </si>
+  <si>
+    <t>change to side with one friend</t>
+  </si>
+  <si>
+    <t>level 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move to secluded area: make asking her okay a good response. </t>
   </si>
 </sst>
 </file>
@@ -950,7 +959,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1"/>
@@ -967,6 +976,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
@@ -1287,10 +1297,10 @@
   <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,7 +1725,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>17</v>
       </c>
@@ -1740,8 +1750,11 @@
       <c r="J17" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1764,7 +1777,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>19</v>
       </c>
@@ -1789,8 +1802,11 @@
       <c r="J19" s="10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -1813,7 +1829,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -1833,7 +1849,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -1853,7 +1869,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>23</v>
       </c>
@@ -1873,7 +1889,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>24</v>
       </c>
@@ -1893,7 +1909,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -1913,7 +1929,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -1936,7 +1952,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -1959,7 +1975,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -1982,7 +1998,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -2005,7 +2021,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -2028,7 +2044,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -2051,7 +2067,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>33</v>
       </c>
@@ -2075,6 +2091,9 @@
       <c r="I32" s="1"/>
       <c r="J32" s="10" t="s">
         <v>129</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">

--- a/Bystander Intervention/MetaData/MetaData.xlsx
+++ b/Bystander Intervention/MetaData/MetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Documents\Games\SeniorDesign480\Bystander Intervention\MetaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BFCB10-E0AA-4D31-8FD7-DC95377EF444}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFC2810-731F-494D-B7F5-182D2A639030}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6CCB2488-0D6D-4EC9-A2A8-43151E4FAC94}"/>
+    <workbookView xWindow="10875" yWindow="6135" windowWidth="20910" windowHeight="11835" xr2:uid="{6CCB2488-0D6D-4EC9-A2A8-43151E4FAC94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="287">
   <si>
     <t>Title</t>
   </si>
@@ -687,9 +687,6 @@
     <t>follow them in</t>
   </si>
   <si>
-    <t xml:space="preserve">I really do not like this consequence. </t>
-  </si>
-  <si>
     <t>woman breakinginto car</t>
   </si>
   <si>
@@ -720,9 +717,6 @@
     <t>go talk to girl</t>
   </si>
   <si>
-    <t xml:space="preserve">REALLLLLYYYY don't like this response, esoecially in the current climate. </t>
-  </si>
-  <si>
     <t>groping drunk</t>
   </si>
   <si>
@@ -846,9 +840,6 @@
     <t>confront childs mother</t>
   </si>
   <si>
-    <t>Doesn’t fit in this game.</t>
-  </si>
-  <si>
     <t>mob against gay guy</t>
   </si>
   <si>
@@ -865,6 +856,36 @@
   </si>
   <si>
     <t xml:space="preserve">move to secluded area: make asking her okay a good response. </t>
+  </si>
+  <si>
+    <t>Doesn’t fit in this game. There is no reference to parents or this job earlier on. It can still work just needs a little tweaking. Maybe change telling parents to calling CPS?</t>
+  </si>
+  <si>
+    <t>REALLLLLYYYY don't like these responses, esoecially in the current climate of #metoo vs people who think that girls will just makeup sexual harassment cases commonly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really do not like this consequence. I am assuming that option 3 is the best one (or at least the neutral one). </t>
+  </si>
+  <si>
+    <t>NOTES AS A WHOLE:</t>
+  </si>
+  <si>
+    <t>I am not a fan of the scenarios where option 1 and 2 has the "problem" be some big bad thing but option 3 is "oh everything</t>
+  </si>
+  <si>
+    <t>was okay and you feel embarassed that you thought wrong". Like assuming things are bad, and taking preventive actions should</t>
+  </si>
+  <si>
+    <t>not result in you feeling embarassed when your assumption is bad. I would say ending it with "better safe than sorry" if you want to keep the strucure</t>
+  </si>
+  <si>
+    <t>of options 1 and 2 has the "problem" be bad and option 3 is the problem wasn’t actually one.</t>
+  </si>
+  <si>
+    <t>I know we discussed this, but we are a freshman, the scenarios should reflect that. So scenarios that involve alchohol shoud be tweaked,</t>
+  </si>
+  <si>
+    <t>and scenarios involving sororities/fraternaties (I will make those co-ed) should not act like you are already a member</t>
   </si>
 </sst>
 </file>
@@ -959,15 +980,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -977,6 +996,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
@@ -1294,13 +1314,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED39810-76AD-4451-B4B4-55408CB96D54}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,7 +1333,7 @@
     <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="10" max="10" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1366,14 +1386,16 @@
       <c r="H2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1395,7 +1417,7 @@
       <c r="I3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <v>1</v>
       </c>
       <c r="K3">
@@ -1404,7 +1426,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>40</v>
@@ -1426,7 +1448,7 @@
       <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <v>2</v>
       </c>
       <c r="K4">
@@ -1435,7 +1457,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>42</v>
@@ -1453,7 +1475,7 @@
         <v>44</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>3</v>
       </c>
       <c r="K5">
@@ -1462,7 +1484,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>45</v>
@@ -1482,7 +1504,7 @@
         <v>47</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>4</v>
       </c>
       <c r="K6">
@@ -1491,7 +1513,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>48</v>
@@ -1511,7 +1533,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>5</v>
       </c>
       <c r="K7">
@@ -1519,8 +1541,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" s="4">
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>51</v>
@@ -1542,8 +1564,8 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
+      <c r="A9" s="4">
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>54</v>
@@ -1565,8 +1587,8 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
+      <c r="A10" s="4">
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>57</v>
@@ -1591,7 +1613,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>60</v>
@@ -1613,8 +1635,8 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" s="4">
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>62</v>
@@ -1637,7 +1659,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>64</v>
@@ -1659,8 +1681,8 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" s="4">
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>65</v>
@@ -1680,8 +1702,8 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" s="4">
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>69</v>
@@ -1703,8 +1725,8 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" s="4">
+        <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
@@ -1726,8 +1748,8 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>17</v>
+      <c r="A17" s="12">
+        <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>74</v>
@@ -1747,16 +1769,16 @@
         <v>76</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="16" t="s">
-        <v>277</v>
+      <c r="K17" s="14" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>18</v>
+      <c r="A18" s="15">
+        <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>77</v>
@@ -1778,8 +1800,8 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>19</v>
+      <c r="A19" s="12">
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>80</v>
@@ -1799,16 +1821,16 @@
         <v>83</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="16" t="s">
-        <v>278</v>
+      <c r="K19" s="14" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20</v>
+      <c r="A20" s="15">
+        <v>67</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>84</v>
@@ -1830,8 +1852,8 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21</v>
+      <c r="A21" s="15">
+        <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
@@ -1850,8 +1872,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>22</v>
+      <c r="A22" s="15">
+        <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1871,7 +1893,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>93</v>
@@ -1891,7 +1913,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>96</v>
@@ -1910,8 +1932,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>25</v>
+      <c r="A25" s="4">
+        <v>18</v>
       </c>
       <c r="B25" t="s">
         <v>99</v>
@@ -1930,7 +1952,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="4">
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1950,11 +1972,13 @@
       <c r="H26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>28</v>
+      <c r="A27" s="4">
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>105</v>
@@ -1976,8 +2000,8 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>29</v>
+      <c r="A28" s="4">
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>107</v>
@@ -1999,8 +2023,8 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>30</v>
+      <c r="A29" s="4">
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>110</v>
@@ -2022,8 +2046,8 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>31</v>
+      <c r="A30" s="4">
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>113</v>
@@ -2045,8 +2069,8 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>32</v>
+      <c r="A31" s="4">
+        <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>116</v>
@@ -2068,8 +2092,8 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>33</v>
+      <c r="A32" s="11">
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>118</v>
@@ -2089,16 +2113,16 @@
         <v>121</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K32" s="16" t="s">
-        <v>279</v>
+      <c r="K32" s="14" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>34</v>
+      <c r="A33" s="4">
+        <v>50</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>123</v>
@@ -2120,8 +2144,8 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>35</v>
+      <c r="A34" s="4">
+        <v>53</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>25</v>
@@ -2143,8 +2167,8 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
-        <v>36</v>
+      <c r="A35" s="12">
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>126</v>
@@ -2164,13 +2188,13 @@
         <v>127</v>
       </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>37</v>
+      <c r="A36" s="15">
+        <v>60</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>132</v>
@@ -2192,8 +2216,8 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>39</v>
+      <c r="A37" s="15">
+        <v>73</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>134</v>
@@ -2215,8 +2239,8 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>40</v>
+      <c r="A38" s="4">
+        <v>83</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>136</v>
@@ -2236,13 +2260,13 @@
         <v>30</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="9" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>41</v>
+      <c r="A39" s="4">
+        <v>24</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>139</v>
@@ -2264,8 +2288,8 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>42</v>
+      <c r="A40" s="4">
+        <v>65</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>142</v>
@@ -2275,7 +2299,7 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>143</v>
       </c>
       <c r="G40" s="4" t="s">
@@ -2285,13 +2309,13 @@
         <v>145</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="9" t="s">
+      <c r="J40" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>43</v>
+      <c r="A41" s="4">
+        <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>148</v>
@@ -2310,8 +2334,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>44</v>
+      <c r="A42" s="4">
+        <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>151</v>
@@ -2333,8 +2357,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>46</v>
+      <c r="A43" s="4">
+        <v>12</v>
       </c>
       <c r="B43" t="s">
         <v>154</v>
@@ -2353,8 +2377,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>47</v>
+      <c r="A44" s="4">
+        <v>23</v>
       </c>
       <c r="B44" t="s">
         <v>157</v>
@@ -2373,8 +2397,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>49</v>
+      <c r="A45" s="11">
+        <v>37</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>160</v>
@@ -2393,13 +2417,13 @@
       <c r="H45" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
-        <v>50</v>
+      <c r="A46" s="13">
+        <v>41</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>163</v>
@@ -2418,13 +2442,13 @@
       <c r="H46" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>51</v>
+      <c r="A47" s="4">
+        <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>166</v>
@@ -2444,7 +2468,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>170</v>
@@ -2463,13 +2487,13 @@
       <c r="H48" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
         <v>174</v>
@@ -2480,19 +2504,19 @@
       <c r="F49" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="5" t="s">
         <v>175</v>
       </c>
       <c r="H49" t="s">
         <v>176</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
         <v>178</v>
@@ -2512,8 +2536,8 @@
       <c r="J50"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>57</v>
+      <c r="A51" s="4">
+        <v>75</v>
       </c>
       <c r="B51" t="s">
         <v>180</v>
@@ -2533,7 +2557,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>182</v>
@@ -2552,13 +2576,13 @@
       <c r="H52" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="6" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>59</v>
+      <c r="A53" s="4">
+        <v>86</v>
       </c>
       <c r="B53" t="s">
         <v>187</v>
@@ -2575,10 +2599,13 @@
       <c r="H53" t="s">
         <v>190</v>
       </c>
+      <c r="I53" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
         <v>191</v>
@@ -2600,8 +2627,8 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>61</v>
+      <c r="A55" s="4">
+        <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>194</v>
@@ -2615,16 +2642,16 @@
       <c r="G55" t="s">
         <v>195</v>
       </c>
-      <c r="H55" s="12" t="s">
+      <c r="H55" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="J55" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>62</v>
+      <c r="A56" s="4">
+        <v>14</v>
       </c>
       <c r="B56" t="s">
         <v>198</v>
@@ -2643,13 +2670,13 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>63</v>
+      <c r="A57" s="4">
+        <v>36</v>
       </c>
       <c r="B57" t="s">
         <v>201</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="10">
         <v>4</v>
       </c>
       <c r="F57" t="s">
@@ -2661,38 +2688,38 @@
       <c r="H57" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="J57" s="6" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>64</v>
-      </c>
-      <c r="B58" s="12" t="s">
+      <c r="A58" s="4">
+        <v>39</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="10">
         <v>4</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12" t="s">
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="G58" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="12" t="s">
+      <c r="G58" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="J58" s="8" t="s">
+      <c r="J58" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
         <v>208</v>
@@ -2711,8 +2738,8 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>66</v>
+      <c r="A60" s="4">
+        <v>64</v>
       </c>
       <c r="B60" t="s">
         <v>211</v>
@@ -2732,7 +2759,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
         <v>214</v>
@@ -2751,8 +2778,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>68</v>
+      <c r="A62" s="4">
+        <v>71</v>
       </c>
       <c r="B62" t="s">
         <v>217</v>
@@ -2766,19 +2793,19 @@
       <c r="G62" t="s">
         <v>218</v>
       </c>
-      <c r="H62" s="12" t="s">
+      <c r="H62" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="J62" s="8" t="s">
+      <c r="J62" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>69</v>
-      </c>
-      <c r="B63" t="s">
-        <v>221</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -2787,81 +2814,81 @@
         <v>17</v>
       </c>
       <c r="G63" t="s">
+        <v>221</v>
+      </c>
+      <c r="H63" t="s">
         <v>222</v>
       </c>
-      <c r="H63" t="s">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>87</v>
+      </c>
+      <c r="B64" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>70</v>
-      </c>
-      <c r="B64" t="s">
-        <v>224</v>
       </c>
       <c r="C64">
         <v>4</v>
       </c>
       <c r="F64" t="s">
+        <v>224</v>
+      </c>
+      <c r="G64" t="s">
         <v>225</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>226</v>
       </c>
-      <c r="H64" t="s">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>88</v>
+      </c>
+      <c r="B65" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>71</v>
-      </c>
-      <c r="B65" t="s">
-        <v>228</v>
       </c>
       <c r="C65">
         <v>5</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G65" t="s">
+        <v>228</v>
+      </c>
+      <c r="H65" t="s">
         <v>229</v>
       </c>
-      <c r="H65" t="s">
+      <c r="J65" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
         <v>230</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>72</v>
-      </c>
-      <c r="B66" t="s">
-        <v>232</v>
       </c>
       <c r="C66">
         <v>5</v>
       </c>
       <c r="F66" t="s">
+        <v>231</v>
+      </c>
+      <c r="G66" t="s">
+        <v>232</v>
+      </c>
+      <c r="H66" t="s">
         <v>233</v>
-      </c>
-      <c r="G66" t="s">
-        <v>234</v>
-      </c>
-      <c r="H66" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -2870,18 +2897,21 @@
         <v>17</v>
       </c>
       <c r="G67" t="s">
+        <v>235</v>
+      </c>
+      <c r="H67" t="s">
+        <v>236</v>
+      </c>
+      <c r="I67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>19</v>
+      </c>
+      <c r="B68" t="s">
         <v>237</v>
-      </c>
-      <c r="H67" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>75</v>
-      </c>
-      <c r="B68" t="s">
-        <v>239</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -2890,38 +2920,38 @@
         <v>11</v>
       </c>
       <c r="G68" t="s">
+        <v>238</v>
+      </c>
+      <c r="H68" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
         <v>240</v>
-      </c>
-      <c r="H68" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>76</v>
-      </c>
-      <c r="B69" t="s">
-        <v>242</v>
       </c>
       <c r="C69">
         <v>5</v>
       </c>
       <c r="F69" t="s">
+        <v>241</v>
+      </c>
+      <c r="G69" t="s">
+        <v>242</v>
+      </c>
+      <c r="H69" t="s">
         <v>243</v>
       </c>
-      <c r="G69" t="s">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
         <v>244</v>
-      </c>
-      <c r="H69" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>77</v>
-      </c>
-      <c r="B70" t="s">
-        <v>246</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -2930,18 +2960,18 @@
         <v>17</v>
       </c>
       <c r="G70" t="s">
+        <v>245</v>
+      </c>
+      <c r="H70" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>22</v>
+      </c>
+      <c r="B71" t="s">
         <v>247</v>
-      </c>
-      <c r="H70" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>78</v>
-      </c>
-      <c r="B71" t="s">
-        <v>249</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -2950,78 +2980,78 @@
         <v>17</v>
       </c>
       <c r="G71" t="s">
+        <v>248</v>
+      </c>
+      <c r="H71" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>66</v>
+      </c>
+      <c r="B72" t="s">
         <v>250</v>
-      </c>
-      <c r="H71" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>80</v>
-      </c>
-      <c r="B72" t="s">
-        <v>252</v>
       </c>
       <c r="C72">
         <v>5</v>
       </c>
       <c r="F72" t="s">
+        <v>251</v>
+      </c>
+      <c r="G72" t="s">
+        <v>252</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>69</v>
+      </c>
+      <c r="B73" t="s">
         <v>253</v>
-      </c>
-      <c r="G72" t="s">
-        <v>254</v>
-      </c>
-      <c r="H72" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>82</v>
-      </c>
-      <c r="B73" t="s">
-        <v>255</v>
       </c>
       <c r="C73">
         <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G73" t="s">
         <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C74">
         <v>5</v>
       </c>
       <c r="F74" t="s">
+        <v>257</v>
+      </c>
+      <c r="G74" t="s">
+        <v>258</v>
+      </c>
+      <c r="H74" t="s">
         <v>259</v>
       </c>
-      <c r="G74" t="s">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
         <v>260</v>
-      </c>
-      <c r="H74" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>84</v>
-      </c>
-      <c r="B75" t="s">
-        <v>262</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -3030,18 +3060,18 @@
         <v>17</v>
       </c>
       <c r="G75" t="s">
+        <v>261</v>
+      </c>
+      <c r="H75" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
         <v>263</v>
-      </c>
-      <c r="H75" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>85</v>
-      </c>
-      <c r="B76" t="s">
-        <v>265</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -3050,18 +3080,18 @@
         <v>17</v>
       </c>
       <c r="G76" t="s">
+        <v>264</v>
+      </c>
+      <c r="H76" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
         <v>266</v>
-      </c>
-      <c r="H76" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>86</v>
-      </c>
-      <c r="B77" t="s">
-        <v>268</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -3073,15 +3103,15 @@
         <v>17</v>
       </c>
       <c r="H77" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>87</v>
+      <c r="A78" s="4">
+        <v>84</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C78" s="3">
         <v>5</v>
@@ -3092,21 +3122,21 @@
         <v>17</v>
       </c>
       <c r="G78" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
         <v>271</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="J78" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>88</v>
-      </c>
-      <c r="B79" t="s">
-        <v>274</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -3115,10 +3145,45 @@
         <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H79" t="s">
-        <v>276</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J80" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J81" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J82" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J83" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J84" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J86" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J87" s="6" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/Bystander Intervention/MetaData/MetaData.xlsx
+++ b/Bystander Intervention/MetaData/MetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Documents\Games\SeniorDesign480\Bystander Intervention\MetaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F22877B-23FE-40D3-9660-3B852F3E9435}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6B2EB1-0288-453E-A8A2-D82D75680024}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7710" yWindow="4665" windowWidth="20910" windowHeight="11835" xr2:uid="{6CCB2488-0D6D-4EC9-A2A8-43151E4FAC94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6CCB2488-0D6D-4EC9-A2A8-43151E4FAC94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
   <si>
     <t>Title</t>
   </si>
@@ -405,6 +405,9 @@
     <t xml:space="preserve">Update from you: Well, I could have helped someone\n
 out today. I didn't, and they dropped all of their \n
 things everwhere. </t>
+  </si>
+  <si>
+    <t>BestChoice?</t>
   </si>
 </sst>
 </file>
@@ -759,13 +762,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED39810-76AD-4451-B4B4-55408CB96D54}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,9 +782,10 @@
     <col min="8" max="8" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
     <col min="10" max="10" width="150.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -812,8 +816,11 @@
       <c r="J1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -835,8 +842,11 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
@@ -858,8 +868,11 @@
       <c r="I3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -881,8 +894,11 @@
       <c r="I4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>25</v>
       </c>
@@ -901,8 +917,11 @@
       <c r="H5" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>28</v>
       </c>
@@ -921,8 +940,11 @@
       <c r="H6" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>29</v>
       </c>
@@ -941,8 +963,11 @@
       <c r="H7" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
@@ -961,8 +986,11 @@
       <c r="H8" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>33</v>
       </c>
@@ -972,8 +1000,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>40</v>
       </c>
@@ -986,8 +1017,11 @@
       <c r="I10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>42</v>
       </c>
@@ -997,8 +1031,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>47</v>
       </c>
@@ -1008,8 +1045,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>49</v>
       </c>
@@ -1019,8 +1059,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>51</v>
       </c>
@@ -1030,8 +1073,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>59</v>
       </c>
@@ -1041,8 +1087,11 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>76</v>
       </c>
@@ -1052,8 +1101,11 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>80</v>
       </c>
@@ -1063,8 +1115,11 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>82</v>
       </c>
@@ -1074,8 +1129,11 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>52</v>
       </c>
@@ -1085,8 +1143,11 @@
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>67</v>
       </c>
@@ -1096,8 +1157,11 @@
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1107,8 +1171,11 @@
       <c r="C21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1118,8 +1185,11 @@
       <c r="C22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1129,8 +1199,11 @@
       <c r="C23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
@@ -1140,8 +1213,11 @@
       <c r="C24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18</v>
       </c>
@@ -1151,8 +1227,11 @@
       <c r="C25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27</v>
       </c>
@@ -1165,8 +1244,11 @@
       <c r="I26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31</v>
       </c>
@@ -1176,8 +1258,11 @@
       <c r="C27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32</v>
       </c>
@@ -1187,8 +1272,11 @@
       <c r="C28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>34</v>
       </c>
@@ -1198,8 +1286,11 @@
       <c r="C29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>35</v>
       </c>
@@ -1209,8 +1300,11 @@
       <c r="C30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>43</v>
       </c>
@@ -1220,8 +1314,11 @@
       <c r="C31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>44</v>
       </c>
@@ -1231,8 +1328,11 @@
       <c r="C32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>50</v>
       </c>
@@ -1242,8 +1342,11 @@
       <c r="C33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>53</v>
       </c>
@@ -1253,8 +1356,11 @@
       <c r="C34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>58</v>
       </c>
@@ -1264,8 +1370,11 @@
       <c r="C35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>60</v>
       </c>
@@ -1275,8 +1384,11 @@
       <c r="C36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>73</v>
       </c>
@@ -1286,8 +1398,11 @@
       <c r="C37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>83</v>
       </c>
@@ -1297,8 +1412,11 @@
       <c r="C38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>24</v>
       </c>
@@ -1308,8 +1426,11 @@
       <c r="C39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>65</v>
       </c>
@@ -1319,8 +1440,11 @@
       <c r="C40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -1330,8 +1454,11 @@
       <c r="C41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10</v>
       </c>
@@ -1344,8 +1471,11 @@
       <c r="I42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12</v>
       </c>
@@ -1355,8 +1485,11 @@
       <c r="C43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>23</v>
       </c>
@@ -1366,8 +1499,11 @@
       <c r="C44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>37</v>
       </c>
@@ -1377,8 +1513,11 @@
       <c r="C45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>41</v>
       </c>
@@ -1388,8 +1527,11 @@
       <c r="C46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>55</v>
       </c>
@@ -1399,8 +1541,11 @@
       <c r="C47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>57</v>
       </c>
@@ -1410,8 +1555,11 @@
       <c r="C48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>61</v>
       </c>
@@ -1421,8 +1569,11 @@
       <c r="C49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>63</v>
       </c>
@@ -1432,8 +1583,11 @@
       <c r="C50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>75</v>
       </c>
@@ -1443,8 +1597,11 @@
       <c r="C51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>46</v>
       </c>
@@ -1454,8 +1611,11 @@
       <c r="C52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>86</v>
       </c>
@@ -1468,8 +1628,11 @@
       <c r="I53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1482,8 +1645,11 @@
       <c r="I54" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>7</v>
       </c>
@@ -1493,8 +1659,11 @@
       <c r="C55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>14</v>
       </c>
@@ -1504,8 +1673,11 @@
       <c r="C56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>36</v>
       </c>
@@ -1515,8 +1687,11 @@
       <c r="C57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>39</v>
       </c>
@@ -1526,8 +1701,11 @@
       <c r="C58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>62</v>
       </c>
@@ -1537,8 +1715,11 @@
       <c r="C59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>64</v>
       </c>
@@ -1548,8 +1729,11 @@
       <c r="C60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>68</v>
       </c>
@@ -1559,8 +1743,11 @@
       <c r="C61">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>71</v>
       </c>
@@ -1570,8 +1757,11 @@
       <c r="C62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>78</v>
       </c>
@@ -1581,8 +1771,11 @@
       <c r="C63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>87</v>
       </c>
@@ -1592,8 +1785,11 @@
       <c r="C64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>88</v>
       </c>
@@ -1603,8 +1799,11 @@
       <c r="C65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
@@ -1614,8 +1813,11 @@
       <c r="C66">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>17</v>
       </c>
@@ -1628,8 +1830,11 @@
       <c r="I67" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>19</v>
       </c>
@@ -1639,8 +1844,11 @@
       <c r="C68">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>20</v>
       </c>
@@ -1650,8 +1858,11 @@
       <c r="C69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>21</v>
       </c>
@@ -1661,8 +1872,11 @@
       <c r="C70">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>22</v>
       </c>
@@ -1672,8 +1886,11 @@
       <c r="C71">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>66</v>
       </c>
@@ -1683,8 +1900,11 @@
       <c r="C72">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>69</v>
       </c>
@@ -1694,8 +1914,11 @@
       <c r="C73">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>70</v>
       </c>
@@ -1705,8 +1928,11 @@
       <c r="C74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>72</v>
       </c>
@@ -1716,8 +1942,11 @@
       <c r="C75">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>77</v>
       </c>
@@ -1727,8 +1956,11 @@
       <c r="C76">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11</v>
       </c>
@@ -1738,8 +1970,11 @@
       <c r="C77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>84</v>
       </c>
@@ -1749,8 +1984,11 @@
       <c r="C78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>85</v>
       </c>
@@ -1759,6 +1997,9 @@
       </c>
       <c r="C79">
         <v>5</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bystander Intervention/MetaData/MetaData.xlsx
+++ b/Bystander Intervention/MetaData/MetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Documents\Games\SeniorDesign480\Bystander Intervention\MetaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17804AA7-C9F7-48D9-9DCF-42A12FFEB807}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6399BB-D3ED-4D92-A52C-07C18D4B93AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20910" windowHeight="11835" xr2:uid="{6CCB2488-0D6D-4EC9-A2A8-43151E4FAC94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6CCB2488-0D6D-4EC9-A2A8-43151E4FAC94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Title</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>BestChoice?</t>
+  </si>
+  <si>
+    <t>ShiftedID</t>
   </si>
 </sst>
 </file>
@@ -568,873 +571,1119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED39810-76AD-4451-B4B4-55408CB96D54}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <f>A2+200</f>
+        <v>201</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3">
+        <f t="shared" ref="B3:B61" si="0">A3+200</f>
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>209</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>229</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
       <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
       <c r="D11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
       <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>82</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
       <c r="D14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
       <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
       <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
       <c r="D17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
       <c r="D18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
+      <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
       <c r="D19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>31</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>32</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="C21" t="s">
         <v>23</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
       <c r="D21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
       <c r="D22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
       <c r="D23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>44</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
       <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>60</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
       <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>73</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="C27" t="s">
         <v>29</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
       <c r="D27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>83</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
+      <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
       <c r="D28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>52</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="C29" t="s">
         <v>16</v>
       </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
       <c r="D29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="C30" t="s">
         <v>31</v>
       </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
       <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="C31" t="s">
         <v>32</v>
       </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
       <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>12</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="C32" t="s">
         <v>33</v>
       </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
       <c r="D32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>23</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+      <c r="C33" t="s">
         <v>34</v>
       </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="C34" t="s">
         <v>35</v>
       </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
       <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>55</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="C35" t="s">
         <v>36</v>
       </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>61</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+      <c r="C36" t="s">
         <v>37</v>
       </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
       <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>63</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+      <c r="C37" t="s">
         <v>38</v>
       </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
       <c r="D37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>75</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="C38" t="s">
         <v>39</v>
       </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
       <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>86</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>286</v>
+      </c>
+      <c r="C39" t="s">
         <v>40</v>
       </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
       <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="C40" t="s">
         <v>41</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>4</v>
       </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="C41" t="s">
         <v>42</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>4</v>
       </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="C42" t="s">
         <v>43</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>4</v>
       </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>36</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+      <c r="C43" t="s">
         <v>44</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>4</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>62</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>262</v>
+      </c>
+      <c r="C44" t="s">
         <v>45</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>4</v>
       </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>64</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="C45" t="s">
         <v>46</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>4</v>
       </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>68</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>268</v>
+      </c>
+      <c r="C46" t="s">
         <v>47</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>4</v>
       </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>71</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>271</v>
+      </c>
+      <c r="C47" t="s">
         <v>48</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>4</v>
       </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>78</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>278</v>
+      </c>
+      <c r="C48" t="s">
         <v>49</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>4</v>
       </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>87</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+      <c r="C49" t="s">
         <v>50</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>4</v>
       </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>88</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="C50" t="s">
         <v>51</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>5</v>
       </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="C51" t="s">
         <v>52</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>5</v>
       </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>17</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="C52" t="s">
         <v>53</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>5</v>
       </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>19</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>219</v>
+      </c>
+      <c r="C53" t="s">
         <v>54</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>5</v>
       </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="C54" t="s">
         <v>55</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>5</v>
       </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>21</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="C55" t="s">
         <v>56</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>5</v>
       </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>22</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="C56" t="s">
         <v>57</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>5</v>
       </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>66</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>266</v>
+      </c>
+      <c r="C57" t="s">
         <v>58</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>5</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>70</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="C58" t="s">
         <v>59</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>5</v>
       </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>72</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="C59" t="s">
         <v>60</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>5</v>
       </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>77</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>277</v>
+      </c>
+      <c r="C60" t="s">
         <v>61</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>85</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="C61" t="s">
         <v>62</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>5</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>2</v>
       </c>
     </row>
@@ -1446,7 +1695,7 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Duplicate Scene ID" error="This scene ID already exists. You are either using the wrong ID, or you need to update an existing entry." sqref="A2:A561" xr:uid="{B34EEDD6-D531-4CA9-8623-416BEE6A7F5F}">
       <formula1>COUNTIF($A:$A,A2)=1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Duplicate Title" error="You have entered a duplicate Title. This scene either already exists, and you need to find it, or you need to create a more meaningful (and unique) title." sqref="B1:B1048576" xr:uid="{953A7014-D9FA-41DA-B1BF-3E2CB17FD53F}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Duplicate Title" error="You have entered a duplicate Title. This scene either already exists, and you need to find it, or you need to create a more meaningful (and unique) title." sqref="B62:B1048576 C1:C61" xr:uid="{953A7014-D9FA-41DA-B1BF-3E2CB17FD53F}">
       <formula1>COUNTIF($B:$B,B1)=1</formula1>
     </dataValidation>
   </dataValidations>
